--- a/po_analysis_by_asin/B0B5VY6ZFC_po_data.xlsx
+++ b/po_analysis_by_asin/B0B5VY6ZFC_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,265 +452,497 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>936</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>280</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>650</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45411</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45418</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45425</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45432</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45439</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45446</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>358</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>308</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45467</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45474</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>184</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45481</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>44</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45530</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45537</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45544</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45551</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45593</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45607</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>936</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45614</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45621</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45628</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B63" t="n">
         <v>242</v>
       </c>
     </row>
@@ -725,7 +957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,97 +979,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1077</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>225</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>306</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>650</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>708</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>228</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>158</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>278</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45627</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B13" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>242</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0B5VY6ZFC_po_data.xlsx
+++ b/po_analysis_by_asin/B0B5VY6ZFC_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -973,7 +974,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1151,6 +1152,1027 @@
       </c>
       <c r="B23" t="n">
         <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-108.854384366215</v>
+      </c>
+      <c r="D2" t="n">
+        <v>275.158724460017</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>89</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-126.8383184092235</v>
+      </c>
+      <c r="D3" t="n">
+        <v>298.8590288623307</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>89</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-119.5274932426075</v>
+      </c>
+      <c r="D4" t="n">
+        <v>292.149823329933</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-108.0314628133439</v>
+      </c>
+      <c r="D5" t="n">
+        <v>307.0159770603289</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-125.3135781624699</v>
+      </c>
+      <c r="D6" t="n">
+        <v>284.5160825734419</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-116.3761344615603</v>
+      </c>
+      <c r="D7" t="n">
+        <v>296.2207753587543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-104.8918406828645</v>
+      </c>
+      <c r="D8" t="n">
+        <v>288.7573207446924</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>91</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-111.559370572663</v>
+      </c>
+      <c r="D9" t="n">
+        <v>292.7838451870339</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>91</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-118.8041880718632</v>
+      </c>
+      <c r="D10" t="n">
+        <v>290.7129604213933</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-94.43593675825663</v>
+      </c>
+      <c r="D11" t="n">
+        <v>282.2199849627162</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>91</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-112.7378652609599</v>
+      </c>
+      <c r="D12" t="n">
+        <v>304.5893761376823</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>92</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-114.4093094699469</v>
+      </c>
+      <c r="D13" t="n">
+        <v>282.5669847089095</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>92</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-113.6491419244195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>289.7708687530668</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>93</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-97.01139669117465</v>
+      </c>
+      <c r="D15" t="n">
+        <v>303.5722708422591</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-107.6226717494796</v>
+      </c>
+      <c r="D16" t="n">
+        <v>296.4200480272291</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>93</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-99.04463850565307</v>
+      </c>
+      <c r="D17" t="n">
+        <v>294.5137073426836</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-102.5061084767717</v>
+      </c>
+      <c r="D18" t="n">
+        <v>302.0125276218778</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>95</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-122.1319343747721</v>
+      </c>
+      <c r="D19" t="n">
+        <v>295.6452328960368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>99</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-105.1762192632675</v>
+      </c>
+      <c r="D20" t="n">
+        <v>304.1624347966392</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>99</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-116.0482406455967</v>
+      </c>
+      <c r="D21" t="n">
+        <v>287.3734145208845</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-97.80162382344376</v>
+      </c>
+      <c r="D22" t="n">
+        <v>299.7948468174988</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-84.10472048292473</v>
+      </c>
+      <c r="D23" t="n">
+        <v>301.2326826281622</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-105.7147101948732</v>
+      </c>
+      <c r="D24" t="n">
+        <v>308.6584920863075</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>101</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-90.48346492406849</v>
+      </c>
+      <c r="D25" t="n">
+        <v>290.7942378808796</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>101</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-110.4618744798705</v>
+      </c>
+      <c r="D26" t="n">
+        <v>307.6436974148938</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>101</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-102.9780539884564</v>
+      </c>
+      <c r="D27" t="n">
+        <v>307.1680729146943</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>101</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-100.1308411819537</v>
+      </c>
+      <c r="D28" t="n">
+        <v>313.3121944005274</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>102</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-113.6604332210568</v>
+      </c>
+      <c r="D29" t="n">
+        <v>312.0105862469396</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>102</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-96.45201112897823</v>
+      </c>
+      <c r="D30" t="n">
+        <v>320.6695344885768</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>103</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-109.6593780346819</v>
+      </c>
+      <c r="D31" t="n">
+        <v>308.792746506144</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>104</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-87.18749090593032</v>
+      </c>
+      <c r="D32" t="n">
+        <v>311.0814477874171</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>104</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-88.8158078305181</v>
+      </c>
+      <c r="D33" t="n">
+        <v>309.0012386040615</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>104</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-97.69867173010562</v>
+      </c>
+      <c r="D34" t="n">
+        <v>307.1468937233942</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>104</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-93.04088249012713</v>
+      </c>
+      <c r="D35" t="n">
+        <v>296.245746636367</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>105</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-96.8261954004381</v>
+      </c>
+      <c r="D36" t="n">
+        <v>308.1367003736223</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>105</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-82.67537729951502</v>
+      </c>
+      <c r="D37" t="n">
+        <v>296.2742170248105</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>105</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-96.22375632538527</v>
+      </c>
+      <c r="D38" t="n">
+        <v>307.1467673351411</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>106</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-103.9100252843713</v>
+      </c>
+      <c r="D39" t="n">
+        <v>290.0487180299617</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>106</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-103.9708994642887</v>
+      </c>
+      <c r="D40" t="n">
+        <v>302.2787189152932</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>106</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-109.3590055192621</v>
+      </c>
+      <c r="D41" t="n">
+        <v>297.0555990913369</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>106</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-100.1329941143637</v>
+      </c>
+      <c r="D42" t="n">
+        <v>307.330510319949</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>107</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-74.06080032506016</v>
+      </c>
+      <c r="D43" t="n">
+        <v>303.593119707712</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>107</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-86.47391190333643</v>
+      </c>
+      <c r="D44" t="n">
+        <v>312.5376513486394</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>108</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-88.63569785483213</v>
+      </c>
+      <c r="D45" t="n">
+        <v>306.0079595945595</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>108</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-94.56156082360894</v>
+      </c>
+      <c r="D46" t="n">
+        <v>311.3779998316827</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>109</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-90.4557822543066</v>
+      </c>
+      <c r="D47" t="n">
+        <v>310.4940767244863</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>109</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-90.31737091916084</v>
+      </c>
+      <c r="D48" t="n">
+        <v>310.2767833594755</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>109</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-85.58015799701258</v>
+      </c>
+      <c r="D49" t="n">
+        <v>311.2427440866518</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>110</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-100.2149932818786</v>
+      </c>
+      <c r="D50" t="n">
+        <v>308.7312418541626</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>110</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-89.62058055454821</v>
+      </c>
+      <c r="D51" t="n">
+        <v>301.7114465214304</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>110</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-94.75450512373129</v>
+      </c>
+      <c r="D52" t="n">
+        <v>315.2928091759426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>111</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-87.43504238910758</v>
+      </c>
+      <c r="D53" t="n">
+        <v>303.1263945634133</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>111</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-88.81930111746867</v>
+      </c>
+      <c r="D54" t="n">
+        <v>307.3438271682543</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>113</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-79.91343339239349</v>
+      </c>
+      <c r="D55" t="n">
+        <v>307.3898479841085</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-73.88044116081414</v>
+      </c>
+      <c r="D56" t="n">
+        <v>304.7512337227516</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>114</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-96.40498904144303</v>
+      </c>
+      <c r="D57" t="n">
+        <v>302.1411548017934</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>114</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-83.31050854683465</v>
+      </c>
+      <c r="D58" t="n">
+        <v>319.9491299094082</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>116</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-70.12833767374167</v>
+      </c>
+      <c r="D59" t="n">
+        <v>310.3372444704871</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>116</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-79.42392853470928</v>
+      </c>
+      <c r="D60" t="n">
+        <v>321.3186333868268</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>116</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-76.04533790483293</v>
+      </c>
+      <c r="D61" t="n">
+        <v>313.9049100455761</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>117</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-82.65843914353965</v>
+      </c>
+      <c r="D62" t="n">
+        <v>299.5654878459691</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>117</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-78.39495532860994</v>
+      </c>
+      <c r="D63" t="n">
+        <v>296.6157190831212</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>117</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-78.04211832853589</v>
+      </c>
+      <c r="D64" t="n">
+        <v>312.9644880628748</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>118</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-73.75780134972034</v>
+      </c>
+      <c r="D65" t="n">
+        <v>320.313600161386</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>118</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-93.5627307487963</v>
+      </c>
+      <c r="D66" t="n">
+        <v>310.3142448918629</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>118</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-87.44487249057968</v>
+      </c>
+      <c r="D67" t="n">
+        <v>310.6789883092803</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>118</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-78.08095793969851</v>
+      </c>
+      <c r="D68" t="n">
+        <v>313.5177349946</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>119</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-88.09279110839657</v>
+      </c>
+      <c r="D69" t="n">
+        <v>303.2772170948106</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>119</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-74.62066444073531</v>
+      </c>
+      <c r="D70" t="n">
+        <v>322.5252757776443</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>119</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-91.00075628962355</v>
+      </c>
+      <c r="D71" t="n">
+        <v>312.5160697176315</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B5VY6ZFC_po_data.xlsx
+++ b/po_analysis_by_asin/B0B5VY6ZFC_po_data.xlsx
@@ -1165,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1184,16 +1184,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1202,12 +1192,6 @@
       <c r="B2" t="n">
         <v>88</v>
       </c>
-      <c r="C2" t="n">
-        <v>-108.854384366215</v>
-      </c>
-      <c r="D2" t="n">
-        <v>275.158724460017</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1216,12 +1200,6 @@
       <c r="B3" t="n">
         <v>89</v>
       </c>
-      <c r="C3" t="n">
-        <v>-126.8383184092235</v>
-      </c>
-      <c r="D3" t="n">
-        <v>298.8590288623307</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1230,12 +1208,6 @@
       <c r="B4" t="n">
         <v>89</v>
       </c>
-      <c r="C4" t="n">
-        <v>-119.5274932426075</v>
-      </c>
-      <c r="D4" t="n">
-        <v>292.149823329933</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1244,12 +1216,6 @@
       <c r="B5" t="n">
         <v>89</v>
       </c>
-      <c r="C5" t="n">
-        <v>-108.0314628133439</v>
-      </c>
-      <c r="D5" t="n">
-        <v>307.0159770603289</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1258,12 +1224,6 @@
       <c r="B6" t="n">
         <v>90</v>
       </c>
-      <c r="C6" t="n">
-        <v>-125.3135781624699</v>
-      </c>
-      <c r="D6" t="n">
-        <v>284.5160825734419</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1272,12 +1232,6 @@
       <c r="B7" t="n">
         <v>90</v>
       </c>
-      <c r="C7" t="n">
-        <v>-116.3761344615603</v>
-      </c>
-      <c r="D7" t="n">
-        <v>296.2207753587543</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1286,12 +1240,6 @@
       <c r="B8" t="n">
         <v>90</v>
       </c>
-      <c r="C8" t="n">
-        <v>-104.8918406828645</v>
-      </c>
-      <c r="D8" t="n">
-        <v>288.7573207446924</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1300,12 +1248,6 @@
       <c r="B9" t="n">
         <v>91</v>
       </c>
-      <c r="C9" t="n">
-        <v>-111.559370572663</v>
-      </c>
-      <c r="D9" t="n">
-        <v>292.7838451870339</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1314,12 +1256,6 @@
       <c r="B10" t="n">
         <v>91</v>
       </c>
-      <c r="C10" t="n">
-        <v>-118.8041880718632</v>
-      </c>
-      <c r="D10" t="n">
-        <v>290.7129604213933</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1328,12 +1264,6 @@
       <c r="B11" t="n">
         <v>91</v>
       </c>
-      <c r="C11" t="n">
-        <v>-94.43593675825663</v>
-      </c>
-      <c r="D11" t="n">
-        <v>282.2199849627162</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1342,12 +1272,6 @@
       <c r="B12" t="n">
         <v>91</v>
       </c>
-      <c r="C12" t="n">
-        <v>-112.7378652609599</v>
-      </c>
-      <c r="D12" t="n">
-        <v>304.5893761376823</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1356,12 +1280,6 @@
       <c r="B13" t="n">
         <v>92</v>
       </c>
-      <c r="C13" t="n">
-        <v>-114.4093094699469</v>
-      </c>
-      <c r="D13" t="n">
-        <v>282.5669847089095</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1370,12 +1288,6 @@
       <c r="B14" t="n">
         <v>92</v>
       </c>
-      <c r="C14" t="n">
-        <v>-113.6491419244195</v>
-      </c>
-      <c r="D14" t="n">
-        <v>289.7708687530668</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1384,12 +1296,6 @@
       <c r="B15" t="n">
         <v>93</v>
       </c>
-      <c r="C15" t="n">
-        <v>-97.01139669117465</v>
-      </c>
-      <c r="D15" t="n">
-        <v>303.5722708422591</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1398,12 +1304,6 @@
       <c r="B16" t="n">
         <v>93</v>
       </c>
-      <c r="C16" t="n">
-        <v>-107.6226717494796</v>
-      </c>
-      <c r="D16" t="n">
-        <v>296.4200480272291</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1412,12 +1312,6 @@
       <c r="B17" t="n">
         <v>93</v>
       </c>
-      <c r="C17" t="n">
-        <v>-99.04463850565307</v>
-      </c>
-      <c r="D17" t="n">
-        <v>294.5137073426836</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1426,12 +1320,6 @@
       <c r="B18" t="n">
         <v>93</v>
       </c>
-      <c r="C18" t="n">
-        <v>-102.5061084767717</v>
-      </c>
-      <c r="D18" t="n">
-        <v>302.0125276218778</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1440,12 +1328,6 @@
       <c r="B19" t="n">
         <v>95</v>
       </c>
-      <c r="C19" t="n">
-        <v>-122.1319343747721</v>
-      </c>
-      <c r="D19" t="n">
-        <v>295.6452328960368</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1454,12 +1336,6 @@
       <c r="B20" t="n">
         <v>99</v>
       </c>
-      <c r="C20" t="n">
-        <v>-105.1762192632675</v>
-      </c>
-      <c r="D20" t="n">
-        <v>304.1624347966392</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1468,12 +1344,6 @@
       <c r="B21" t="n">
         <v>99</v>
       </c>
-      <c r="C21" t="n">
-        <v>-116.0482406455967</v>
-      </c>
-      <c r="D21" t="n">
-        <v>287.3734145208845</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1482,12 +1352,6 @@
       <c r="B22" t="n">
         <v>100</v>
       </c>
-      <c r="C22" t="n">
-        <v>-97.80162382344376</v>
-      </c>
-      <c r="D22" t="n">
-        <v>299.7948468174988</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1496,12 +1360,6 @@
       <c r="B23" t="n">
         <v>100</v>
       </c>
-      <c r="C23" t="n">
-        <v>-84.10472048292473</v>
-      </c>
-      <c r="D23" t="n">
-        <v>301.2326826281622</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1510,12 +1368,6 @@
       <c r="B24" t="n">
         <v>100</v>
       </c>
-      <c r="C24" t="n">
-        <v>-105.7147101948732</v>
-      </c>
-      <c r="D24" t="n">
-        <v>308.6584920863075</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1524,12 +1376,6 @@
       <c r="B25" t="n">
         <v>101</v>
       </c>
-      <c r="C25" t="n">
-        <v>-90.48346492406849</v>
-      </c>
-      <c r="D25" t="n">
-        <v>290.7942378808796</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1538,12 +1384,6 @@
       <c r="B26" t="n">
         <v>101</v>
       </c>
-      <c r="C26" t="n">
-        <v>-110.4618744798705</v>
-      </c>
-      <c r="D26" t="n">
-        <v>307.6436974148938</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1552,12 +1392,6 @@
       <c r="B27" t="n">
         <v>101</v>
       </c>
-      <c r="C27" t="n">
-        <v>-102.9780539884564</v>
-      </c>
-      <c r="D27" t="n">
-        <v>307.1680729146943</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1566,12 +1400,6 @@
       <c r="B28" t="n">
         <v>101</v>
       </c>
-      <c r="C28" t="n">
-        <v>-100.1308411819537</v>
-      </c>
-      <c r="D28" t="n">
-        <v>313.3121944005274</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1580,12 +1408,6 @@
       <c r="B29" t="n">
         <v>102</v>
       </c>
-      <c r="C29" t="n">
-        <v>-113.6604332210568</v>
-      </c>
-      <c r="D29" t="n">
-        <v>312.0105862469396</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1594,12 +1416,6 @@
       <c r="B30" t="n">
         <v>102</v>
       </c>
-      <c r="C30" t="n">
-        <v>-96.45201112897823</v>
-      </c>
-      <c r="D30" t="n">
-        <v>320.6695344885768</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1608,12 +1424,6 @@
       <c r="B31" t="n">
         <v>103</v>
       </c>
-      <c r="C31" t="n">
-        <v>-109.6593780346819</v>
-      </c>
-      <c r="D31" t="n">
-        <v>308.792746506144</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1622,12 +1432,6 @@
       <c r="B32" t="n">
         <v>104</v>
       </c>
-      <c r="C32" t="n">
-        <v>-87.18749090593032</v>
-      </c>
-      <c r="D32" t="n">
-        <v>311.0814477874171</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1636,12 +1440,6 @@
       <c r="B33" t="n">
         <v>104</v>
       </c>
-      <c r="C33" t="n">
-        <v>-88.8158078305181</v>
-      </c>
-      <c r="D33" t="n">
-        <v>309.0012386040615</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1650,12 +1448,6 @@
       <c r="B34" t="n">
         <v>104</v>
       </c>
-      <c r="C34" t="n">
-        <v>-97.69867173010562</v>
-      </c>
-      <c r="D34" t="n">
-        <v>307.1468937233942</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1664,12 +1456,6 @@
       <c r="B35" t="n">
         <v>104</v>
       </c>
-      <c r="C35" t="n">
-        <v>-93.04088249012713</v>
-      </c>
-      <c r="D35" t="n">
-        <v>296.245746636367</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1678,12 +1464,6 @@
       <c r="B36" t="n">
         <v>105</v>
       </c>
-      <c r="C36" t="n">
-        <v>-96.8261954004381</v>
-      </c>
-      <c r="D36" t="n">
-        <v>308.1367003736223</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1692,12 +1472,6 @@
       <c r="B37" t="n">
         <v>105</v>
       </c>
-      <c r="C37" t="n">
-        <v>-82.67537729951502</v>
-      </c>
-      <c r="D37" t="n">
-        <v>296.2742170248105</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1706,12 +1480,6 @@
       <c r="B38" t="n">
         <v>105</v>
       </c>
-      <c r="C38" t="n">
-        <v>-96.22375632538527</v>
-      </c>
-      <c r="D38" t="n">
-        <v>307.1467673351411</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1720,12 +1488,6 @@
       <c r="B39" t="n">
         <v>106</v>
       </c>
-      <c r="C39" t="n">
-        <v>-103.9100252843713</v>
-      </c>
-      <c r="D39" t="n">
-        <v>290.0487180299617</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1734,12 +1496,6 @@
       <c r="B40" t="n">
         <v>106</v>
       </c>
-      <c r="C40" t="n">
-        <v>-103.9708994642887</v>
-      </c>
-      <c r="D40" t="n">
-        <v>302.2787189152932</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1748,12 +1504,6 @@
       <c r="B41" t="n">
         <v>106</v>
       </c>
-      <c r="C41" t="n">
-        <v>-109.3590055192621</v>
-      </c>
-      <c r="D41" t="n">
-        <v>297.0555990913369</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1762,12 +1512,6 @@
       <c r="B42" t="n">
         <v>106</v>
       </c>
-      <c r="C42" t="n">
-        <v>-100.1329941143637</v>
-      </c>
-      <c r="D42" t="n">
-        <v>307.330510319949</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1776,12 +1520,6 @@
       <c r="B43" t="n">
         <v>107</v>
       </c>
-      <c r="C43" t="n">
-        <v>-74.06080032506016</v>
-      </c>
-      <c r="D43" t="n">
-        <v>303.593119707712</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1790,12 +1528,6 @@
       <c r="B44" t="n">
         <v>107</v>
       </c>
-      <c r="C44" t="n">
-        <v>-86.47391190333643</v>
-      </c>
-      <c r="D44" t="n">
-        <v>312.5376513486394</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1804,12 +1536,6 @@
       <c r="B45" t="n">
         <v>108</v>
       </c>
-      <c r="C45" t="n">
-        <v>-88.63569785483213</v>
-      </c>
-      <c r="D45" t="n">
-        <v>306.0079595945595</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1818,12 +1544,6 @@
       <c r="B46" t="n">
         <v>108</v>
       </c>
-      <c r="C46" t="n">
-        <v>-94.56156082360894</v>
-      </c>
-      <c r="D46" t="n">
-        <v>311.3779998316827</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1832,12 +1552,6 @@
       <c r="B47" t="n">
         <v>109</v>
       </c>
-      <c r="C47" t="n">
-        <v>-90.4557822543066</v>
-      </c>
-      <c r="D47" t="n">
-        <v>310.4940767244863</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1846,12 +1560,6 @@
       <c r="B48" t="n">
         <v>109</v>
       </c>
-      <c r="C48" t="n">
-        <v>-90.31737091916084</v>
-      </c>
-      <c r="D48" t="n">
-        <v>310.2767833594755</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1860,12 +1568,6 @@
       <c r="B49" t="n">
         <v>109</v>
       </c>
-      <c r="C49" t="n">
-        <v>-85.58015799701258</v>
-      </c>
-      <c r="D49" t="n">
-        <v>311.2427440866518</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1874,12 +1576,6 @@
       <c r="B50" t="n">
         <v>110</v>
       </c>
-      <c r="C50" t="n">
-        <v>-100.2149932818786</v>
-      </c>
-      <c r="D50" t="n">
-        <v>308.7312418541626</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1888,12 +1584,6 @@
       <c r="B51" t="n">
         <v>110</v>
       </c>
-      <c r="C51" t="n">
-        <v>-89.62058055454821</v>
-      </c>
-      <c r="D51" t="n">
-        <v>301.7114465214304</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1902,12 +1592,6 @@
       <c r="B52" t="n">
         <v>110</v>
       </c>
-      <c r="C52" t="n">
-        <v>-94.75450512373129</v>
-      </c>
-      <c r="D52" t="n">
-        <v>315.2928091759426</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1916,12 +1600,6 @@
       <c r="B53" t="n">
         <v>111</v>
       </c>
-      <c r="C53" t="n">
-        <v>-87.43504238910758</v>
-      </c>
-      <c r="D53" t="n">
-        <v>303.1263945634133</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1930,12 +1608,6 @@
       <c r="B54" t="n">
         <v>111</v>
       </c>
-      <c r="C54" t="n">
-        <v>-88.81930111746867</v>
-      </c>
-      <c r="D54" t="n">
-        <v>307.3438271682543</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1944,12 +1616,6 @@
       <c r="B55" t="n">
         <v>113</v>
       </c>
-      <c r="C55" t="n">
-        <v>-79.91343339239349</v>
-      </c>
-      <c r="D55" t="n">
-        <v>307.3898479841085</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1958,12 +1624,6 @@
       <c r="B56" t="n">
         <v>113</v>
       </c>
-      <c r="C56" t="n">
-        <v>-73.88044116081414</v>
-      </c>
-      <c r="D56" t="n">
-        <v>304.7512337227516</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1972,12 +1632,6 @@
       <c r="B57" t="n">
         <v>114</v>
       </c>
-      <c r="C57" t="n">
-        <v>-96.40498904144303</v>
-      </c>
-      <c r="D57" t="n">
-        <v>302.1411548017934</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1986,12 +1640,6 @@
       <c r="B58" t="n">
         <v>114</v>
       </c>
-      <c r="C58" t="n">
-        <v>-83.31050854683465</v>
-      </c>
-      <c r="D58" t="n">
-        <v>319.9491299094082</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2000,12 +1648,6 @@
       <c r="B59" t="n">
         <v>116</v>
       </c>
-      <c r="C59" t="n">
-        <v>-70.12833767374167</v>
-      </c>
-      <c r="D59" t="n">
-        <v>310.3372444704871</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2014,12 +1656,6 @@
       <c r="B60" t="n">
         <v>116</v>
       </c>
-      <c r="C60" t="n">
-        <v>-79.42392853470928</v>
-      </c>
-      <c r="D60" t="n">
-        <v>321.3186333868268</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2028,12 +1664,6 @@
       <c r="B61" t="n">
         <v>116</v>
       </c>
-      <c r="C61" t="n">
-        <v>-76.04533790483293</v>
-      </c>
-      <c r="D61" t="n">
-        <v>313.9049100455761</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2042,12 +1672,6 @@
       <c r="B62" t="n">
         <v>117</v>
       </c>
-      <c r="C62" t="n">
-        <v>-82.65843914353965</v>
-      </c>
-      <c r="D62" t="n">
-        <v>299.5654878459691</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2056,12 +1680,6 @@
       <c r="B63" t="n">
         <v>117</v>
       </c>
-      <c r="C63" t="n">
-        <v>-78.39495532860994</v>
-      </c>
-      <c r="D63" t="n">
-        <v>296.6157190831212</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2070,12 +1688,6 @@
       <c r="B64" t="n">
         <v>117</v>
       </c>
-      <c r="C64" t="n">
-        <v>-78.04211832853589</v>
-      </c>
-      <c r="D64" t="n">
-        <v>312.9644880628748</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2084,12 +1696,6 @@
       <c r="B65" t="n">
         <v>118</v>
       </c>
-      <c r="C65" t="n">
-        <v>-73.75780134972034</v>
-      </c>
-      <c r="D65" t="n">
-        <v>320.313600161386</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2098,12 +1704,6 @@
       <c r="B66" t="n">
         <v>118</v>
       </c>
-      <c r="C66" t="n">
-        <v>-93.5627307487963</v>
-      </c>
-      <c r="D66" t="n">
-        <v>310.3142448918629</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2112,12 +1712,6 @@
       <c r="B67" t="n">
         <v>118</v>
       </c>
-      <c r="C67" t="n">
-        <v>-87.44487249057968</v>
-      </c>
-      <c r="D67" t="n">
-        <v>310.6789883092803</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2126,12 +1720,6 @@
       <c r="B68" t="n">
         <v>118</v>
       </c>
-      <c r="C68" t="n">
-        <v>-78.08095793969851</v>
-      </c>
-      <c r="D68" t="n">
-        <v>313.5177349946</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2140,12 +1728,6 @@
       <c r="B69" t="n">
         <v>119</v>
       </c>
-      <c r="C69" t="n">
-        <v>-88.09279110839657</v>
-      </c>
-      <c r="D69" t="n">
-        <v>303.2772170948106</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2154,12 +1736,6 @@
       <c r="B70" t="n">
         <v>119</v>
       </c>
-      <c r="C70" t="n">
-        <v>-74.62066444073531</v>
-      </c>
-      <c r="D70" t="n">
-        <v>322.5252757776443</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2167,12 +1743,6 @@
       </c>
       <c r="B71" t="n">
         <v>119</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-91.00075628962355</v>
-      </c>
-      <c r="D71" t="n">
-        <v>312.5160697176315</v>
       </c>
     </row>
   </sheetData>
